--- a/medicine/Handicap/Collection_Toujours_un_chemin/Collection_Toujours_un_chemin.xlsx
+++ b/medicine/Handicap/Collection_Toujours_un_chemin/Collection_Toujours_un_chemin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toujours un chemin est une collection de guides européens pour personnes à mobilité réduite et seniors, créée en octobre 2009.
-C'est l'entreprise d'Elian Revel[1]
+C'est l'entreprise d'Elian Revel
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam
 Barcelone
@@ -531,7 +545,7 @@
 Rome
 Séville
 Venise
-Les informations proposées sont : 10 à 15 attractions touristiques, avec les facilités et difficultés rencontrées, les transports pour s’y rendre, les toilettes proches et les renseignements pratiques habituels. De même, les hôtels et des restaurants accessibles, des cartes du bus, du métro et des indications pour se rendre dans ces villes : avions, train et/ou bateau. Ces guides sont destinés aux personnes à mobilité réduite, ou sujettes à une maladie invalidante, ou aux personnes âgées[2].
+Les informations proposées sont : 10 à 15 attractions touristiques, avec les facilités et difficultés rencontrées, les transports pour s’y rendre, les toilettes proches et les renseignements pratiques habituels. De même, les hôtels et des restaurants accessibles, des cartes du bus, du métro et des indications pour se rendre dans ces villes : avions, train et/ou bateau. Ces guides sont destinés aux personnes à mobilité réduite, ou sujettes à une maladie invalidante, ou aux personnes âgées.
 </t>
         </is>
       </c>
@@ -560,7 +574,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces guides sont à l'initiative d'Elian Revel, fils de Pierre Revel et Maryline Grillères.
 En aout 2006, Maryline Grillères est victime d'un accident de moto, à quelques kilomètres de Castres. Elle devient paraplégique.
